--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H2">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I2">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J2">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N2">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O2">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P2">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q2">
-        <v>14.35945160141126</v>
+        <v>1.483959705633334</v>
       </c>
       <c r="R2">
-        <v>14.35945160141126</v>
+        <v>13.3556373507</v>
       </c>
       <c r="S2">
-        <v>0.009566595159792204</v>
+        <v>0.0007825592619415296</v>
       </c>
       <c r="T2">
-        <v>0.009566595159792204</v>
+        <v>0.0009889349384684081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H3">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I3">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J3">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N3">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P3">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q3">
-        <v>179.7379979728749</v>
+        <v>12.65854020924</v>
       </c>
       <c r="R3">
-        <v>179.7379979728749</v>
+        <v>113.92686188316</v>
       </c>
       <c r="S3">
-        <v>0.1197455661377106</v>
+        <v>0.006675422415982828</v>
       </c>
       <c r="T3">
-        <v>0.1197455661377106</v>
+        <v>0.008435857547480994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H4">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I4">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J4">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N4">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O4">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P4">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q4">
-        <v>205.5052220346822</v>
+        <v>15.21247174041</v>
       </c>
       <c r="R4">
-        <v>205.5052220346822</v>
+        <v>136.91224566369</v>
       </c>
       <c r="S4">
-        <v>0.1369122802876256</v>
+        <v>0.00802222635310767</v>
       </c>
       <c r="T4">
-        <v>0.1369122802876256</v>
+        <v>0.01013783915253557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H5">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I5">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J5">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N5">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O5">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P5">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q5">
-        <v>204.1970510539006</v>
+        <v>15.35534877246667</v>
       </c>
       <c r="R5">
-        <v>204.1970510539006</v>
+        <v>138.1981389522</v>
       </c>
       <c r="S5">
-        <v>0.1360407468530413</v>
+        <v>0.008097571892700297</v>
       </c>
       <c r="T5">
-        <v>0.1360407468530413</v>
+        <v>0.01023305473579509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H6">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I6">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J6">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N6">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O6">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P6">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q6">
-        <v>494.9046212501406</v>
+        <v>31.79694033711001</v>
       </c>
       <c r="R6">
-        <v>494.9046212501406</v>
+        <v>190.78164202266</v>
       </c>
       <c r="S6">
-        <v>0.3297167806704452</v>
+        <v>0.01676796887930858</v>
       </c>
       <c r="T6">
-        <v>0.3297167806704452</v>
+        <v>0.01412666625038995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H7">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J7">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N7">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O7">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P7">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q7">
-        <v>5.257768777524788</v>
+        <v>25.13251604928889</v>
       </c>
       <c r="R7">
-        <v>5.257768777524788</v>
+        <v>226.1926444436</v>
       </c>
       <c r="S7">
-        <v>0.003502845842206941</v>
+        <v>0.01325351566865575</v>
       </c>
       <c r="T7">
-        <v>0.003502845842206941</v>
+        <v>0.01674871839067373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H8">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J8">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N8">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P8">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q8">
-        <v>65.81176357624396</v>
+        <v>214.38652529552</v>
       </c>
       <c r="R8">
-        <v>65.81176357624396</v>
+        <v>1929.47872765968</v>
       </c>
       <c r="S8">
-        <v>0.04384530247826507</v>
+        <v>0.1130557388914204</v>
       </c>
       <c r="T8">
-        <v>0.04384530247826507</v>
+        <v>0.1428706752594041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H9">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J9">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N9">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O9">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P9">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q9">
-        <v>75.24653239028007</v>
+        <v>257.6402099826801</v>
       </c>
       <c r="R9">
-        <v>75.24653239028007</v>
+        <v>2318.76188984412</v>
       </c>
       <c r="S9">
-        <v>0.050130961302537</v>
+        <v>0.1358653687193337</v>
       </c>
       <c r="T9">
-        <v>0.050130961302537</v>
+        <v>0.1716956358309398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H10">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J10">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N10">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O10">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P10">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q10">
-        <v>74.76754052280921</v>
+        <v>260.0599921961778</v>
       </c>
       <c r="R10">
-        <v>74.76754052280921</v>
+        <v>2340.5399297656</v>
       </c>
       <c r="S10">
-        <v>0.04981184596247233</v>
+        <v>0.1371414296365308</v>
       </c>
       <c r="T10">
-        <v>0.04981184596247233</v>
+        <v>0.1733082181438746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H11">
+        <v>35.59684</v>
+      </c>
+      <c r="I11">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J11">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N11">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P11">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q11">
+        <v>538.5167200342801</v>
+      </c>
+      <c r="R11">
+        <v>3231.10032020568</v>
+      </c>
+      <c r="S11">
+        <v>0.2839842924126722</v>
+      </c>
+      <c r="T11">
+        <v>0.2392508805414953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.371554</v>
+      </c>
+      <c r="I12">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J12">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.118096666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.354290000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.01939632514349435</v>
+      </c>
+      <c r="P12">
+        <v>0.02251552750188864</v>
+      </c>
+      <c r="Q12">
+        <v>0.9683613185177777</v>
+      </c>
+      <c r="R12">
+        <v>8.715251866660001</v>
+      </c>
+      <c r="S12">
+        <v>0.0005106608460022705</v>
+      </c>
+      <c r="T12">
+        <v>0.0006453317683143256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.371554</v>
+      </c>
+      <c r="I13">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J13">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.067884</v>
+      </c>
+      <c r="N13">
+        <v>54.20365200000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1654554101491777</v>
+      </c>
+      <c r="P13">
+        <v>0.1920629712066653</v>
+      </c>
+      <c r="Q13">
+        <v>8.260359523912001</v>
+      </c>
+      <c r="R13">
+        <v>74.34323571520801</v>
+      </c>
+      <c r="S13">
+        <v>0.004356062248769363</v>
+      </c>
+      <c r="T13">
+        <v>0.005504838242235455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.371554</v>
+      </c>
+      <c r="I14">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J14">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>21.713181</v>
+      </c>
+      <c r="N14">
+        <v>65.139543</v>
+      </c>
+      <c r="O14">
+        <v>0.198836967737801</v>
+      </c>
+      <c r="P14">
+        <v>0.2308127535691568</v>
+      </c>
+      <c r="Q14">
+        <v>9.926933417758001</v>
+      </c>
+      <c r="R14">
+        <v>89.342400759822</v>
+      </c>
+      <c r="S14">
+        <v>0.005234922255134922</v>
+      </c>
+      <c r="T14">
+        <v>0.006615470252597387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.371554</v>
+      </c>
+      <c r="I15">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J15">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.91711333333333</v>
+      </c>
+      <c r="N15">
+        <v>65.75134</v>
+      </c>
+      <c r="O15">
+        <v>0.2007044641117176</v>
+      </c>
+      <c r="P15">
+        <v>0.2329805696712033</v>
+      </c>
+      <c r="Q15">
+        <v>10.02016815359555</v>
+      </c>
+      <c r="R15">
+        <v>90.18151338236</v>
+      </c>
+      <c r="S15">
+        <v>0.005284089160265416</v>
+      </c>
+      <c r="T15">
+        <v>0.006677603400417111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.371554</v>
+      </c>
+      <c r="I16">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J16">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N16">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O16">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P16">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q16">
+        <v>20.749166539218</v>
+      </c>
+      <c r="R16">
+        <v>124.494999235308</v>
+      </c>
+      <c r="S16">
+        <v>0.01094197665286498</v>
+      </c>
+      <c r="T16">
+        <v>0.009218388548259059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.298806</v>
+      </c>
+      <c r="I17">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J17">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.118096666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.354290000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.01939632514349435</v>
+      </c>
+      <c r="P17">
+        <v>0.02251552750188864</v>
+      </c>
+      <c r="Q17">
+        <v>0.2109666641933334</v>
+      </c>
+      <c r="R17">
+        <v>1.89869997774</v>
+      </c>
+      <c r="S17">
+        <v>0.0001112522910148303</v>
+      </c>
+      <c r="T17">
+        <v>0.0001405916240723518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="H11">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="I11">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="J11">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>45.0560284408126</v>
-      </c>
-      <c r="N11">
-        <v>45.0560284408126</v>
-      </c>
-      <c r="O11">
-        <v>0.4504438559763489</v>
-      </c>
-      <c r="P11">
-        <v>0.4504438559763489</v>
-      </c>
-      <c r="Q11">
-        <v>181.2112424409011</v>
-      </c>
-      <c r="R11">
-        <v>181.2112424409011</v>
-      </c>
-      <c r="S11">
-        <v>0.1207270753059037</v>
-      </c>
-      <c r="T11">
-        <v>0.1207270753059037</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.298806</v>
+      </c>
+      <c r="I18">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J18">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>18.067884</v>
+      </c>
+      <c r="N18">
+        <v>54.20365200000001</v>
+      </c>
+      <c r="O18">
+        <v>0.1654554101491777</v>
+      </c>
+      <c r="P18">
+        <v>0.1920629712066653</v>
+      </c>
+      <c r="Q18">
+        <v>1.799597382168</v>
+      </c>
+      <c r="R18">
+        <v>16.196376439512</v>
+      </c>
+      <c r="S18">
+        <v>0.0009490093254117435</v>
+      </c>
+      <c r="T18">
+        <v>0.001199281031450025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.298806</v>
+      </c>
+      <c r="I19">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J19">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.713181</v>
+      </c>
+      <c r="N19">
+        <v>65.139543</v>
+      </c>
+      <c r="O19">
+        <v>0.198836967737801</v>
+      </c>
+      <c r="P19">
+        <v>0.2308127535691568</v>
+      </c>
+      <c r="Q19">
+        <v>2.162676253962001</v>
+      </c>
+      <c r="R19">
+        <v>19.464086285658</v>
+      </c>
+      <c r="S19">
+        <v>0.001140477282970883</v>
+      </c>
+      <c r="T19">
+        <v>0.001441242710310797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.298806</v>
+      </c>
+      <c r="I20">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J20">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.91711333333333</v>
+      </c>
+      <c r="N20">
+        <v>65.75134</v>
+      </c>
+      <c r="O20">
+        <v>0.2007044641117176</v>
+      </c>
+      <c r="P20">
+        <v>0.2329805696712033</v>
+      </c>
+      <c r="Q20">
+        <v>2.182988322226667</v>
+      </c>
+      <c r="R20">
+        <v>19.64689490004</v>
+      </c>
+      <c r="S20">
+        <v>0.001151188757877756</v>
+      </c>
+      <c r="T20">
+        <v>0.001454779003717707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.298806</v>
+      </c>
+      <c r="I21">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J21">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N21">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O21">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P21">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q21">
+        <v>4.520402008902001</v>
+      </c>
+      <c r="R21">
+        <v>27.12241205341201</v>
+      </c>
+      <c r="S21">
+        <v>0.0023838130148255</v>
+      </c>
+      <c r="T21">
+        <v>0.002008313058436705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.2421405</v>
+      </c>
+      <c r="H22">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J22">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.118096666666667</v>
+      </c>
+      <c r="N22">
+        <v>6.354290000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.01939632514349435</v>
+      </c>
+      <c r="P22">
+        <v>0.02251552750188864</v>
+      </c>
+      <c r="Q22">
+        <v>8.985263652581667</v>
+      </c>
+      <c r="R22">
+        <v>53.91158191549</v>
+      </c>
+      <c r="S22">
+        <v>0.004738337075879976</v>
+      </c>
+      <c r="T22">
+        <v>0.003991950780359822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.2421405</v>
+      </c>
+      <c r="H23">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J23">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>18.067884</v>
+      </c>
+      <c r="N23">
+        <v>54.20365200000001</v>
+      </c>
+      <c r="O23">
+        <v>0.1654554101491777</v>
+      </c>
+      <c r="P23">
+        <v>0.1920629712066653</v>
+      </c>
+      <c r="Q23">
+        <v>76.646502465702</v>
+      </c>
+      <c r="R23">
+        <v>459.879014794212</v>
+      </c>
+      <c r="S23">
+        <v>0.04041917726759338</v>
+      </c>
+      <c r="T23">
+        <v>0.03405231912609469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.2421405</v>
+      </c>
+      <c r="H24">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J24">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>21.713181</v>
+      </c>
+      <c r="N24">
+        <v>65.139543</v>
+      </c>
+      <c r="O24">
+        <v>0.198836967737801</v>
+      </c>
+      <c r="P24">
+        <v>0.2308127535691568</v>
+      </c>
+      <c r="Q24">
+        <v>92.1103645039305</v>
+      </c>
+      <c r="R24">
+        <v>552.662187023583</v>
+      </c>
+      <c r="S24">
+        <v>0.04857397312725388</v>
+      </c>
+      <c r="T24">
+        <v>0.0409225656227733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.2421405</v>
+      </c>
+      <c r="H25">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J25">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.91711333333333</v>
+      </c>
+      <c r="N25">
+        <v>65.75134</v>
+      </c>
+      <c r="O25">
+        <v>0.2007044641117176</v>
+      </c>
+      <c r="P25">
+        <v>0.2329805696712033</v>
+      </c>
+      <c r="Q25">
+        <v>92.97547411442332</v>
+      </c>
+      <c r="R25">
+        <v>557.8528446865399</v>
+      </c>
+      <c r="S25">
+        <v>0.04903018466434333</v>
+      </c>
+      <c r="T25">
+        <v>0.04130691438739874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.2421405</v>
+      </c>
+      <c r="H26">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J26">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N26">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O26">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P26">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q26">
+        <v>192.5280660854655</v>
+      </c>
+      <c r="R26">
+        <v>770.112264341862</v>
+      </c>
+      <c r="S26">
+        <v>0.1015287818981381</v>
+      </c>
+      <c r="T26">
+        <v>0.05702392965250505</v>
       </c>
     </row>
   </sheetData>
